--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem2/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem2/17/word_level_predictions_17.xlsx
@@ -658,104 +658,104 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="A5" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>IMU calibration required Calibrate IMU .</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Calibrate</t>
         </is>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" t="n">
         <v>3</v>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
+      <c r="A6" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>IMU calibration required Calibrate IMU .</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>IMU</t>
         </is>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" t="n">
         <v>4</v>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G6" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -837,7 +837,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G8" s="2" t="b">
@@ -861,7 +861,7 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -889,7 +889,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G9" s="2" t="b">
@@ -913,7 +913,7 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -1906,312 +1906,312 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n">
+      <c r="A29" t="n">
         <v>2</v>
       </c>
-      <c r="B29" s="2" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>Critical low battery Return to home or land promptly .</t>
         </is>
       </c>
-      <c r="C29" s="2" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D29" s="2" t="n">
+      <c r="D29" t="n">
         <v>3</v>
       </c>
-      <c r="E29" s="2" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F29" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G29" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I29" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K29" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L29" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I29" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K29" t="b">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n">
+      <c r="A30" t="n">
         <v>2</v>
       </c>
-      <c r="B30" s="2" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>Critical low battery Return to home or land promptly .</t>
         </is>
       </c>
-      <c r="C30" s="2" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D30" s="2" t="n">
+      <c r="D30" t="n">
         <v>4</v>
       </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F30" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G30" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I30" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K30" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L30" s="2" t="inlineStr">
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I30" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K30" t="b">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n">
+      <c r="A31" t="n">
         <v>2</v>
       </c>
-      <c r="B31" s="2" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>Critical low battery Return to home or land promptly .</t>
         </is>
       </c>
-      <c r="C31" s="2" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>home</t>
         </is>
       </c>
-      <c r="D31" s="2" t="n">
+      <c r="D31" t="n">
         <v>5</v>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G31" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K31" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L31" s="2" t="inlineStr">
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I31" t="b">
+        <v>1</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K31" t="b">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n">
+      <c r="A32" t="n">
         <v>2</v>
       </c>
-      <c r="B32" s="2" t="inlineStr">
+      <c r="B32" t="inlineStr">
         <is>
           <t>Critical low battery Return to home or land promptly .</t>
         </is>
       </c>
-      <c r="C32" s="2" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>or</t>
         </is>
       </c>
-      <c r="D32" s="2" t="n">
+      <c r="D32" t="n">
         <v>6</v>
       </c>
-      <c r="E32" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F32" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G32" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I32" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K32" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L32" s="2" t="inlineStr">
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I32" t="b">
+        <v>1</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K32" t="b">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n">
+      <c r="A33" t="n">
         <v>2</v>
       </c>
-      <c r="B33" s="2" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>Critical low battery Return to home or land promptly .</t>
         </is>
       </c>
-      <c r="C33" s="2" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>land</t>
         </is>
       </c>
-      <c r="D33" s="2" t="n">
+      <c r="D33" t="n">
         <v>7</v>
       </c>
-      <c r="E33" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F33" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G33" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I33" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K33" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L33" s="2" t="inlineStr">
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I33" t="b">
+        <v>1</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K33" t="b">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n">
+      <c r="A34" t="n">
         <v>2</v>
       </c>
-      <c r="B34" s="2" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>Critical low battery Return to home or land promptly .</t>
         </is>
       </c>
-      <c r="C34" s="2" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>promptly</t>
         </is>
       </c>
-      <c r="D34" s="2" t="n">
+      <c r="D34" t="n">
         <v>8</v>
       </c>
-      <c r="E34" s="2" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F34" s="2" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G34" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I34" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K34" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L34" s="2" t="inlineStr">
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I34" t="b">
+        <v>1</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K34" t="b">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -2449,7 +2449,7 @@
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G39" s="2" t="b">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -2917,7 +2917,7 @@
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G48" s="2" t="b">
@@ -2929,11 +2929,11 @@
         </is>
       </c>
       <c r="I48" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K48" s="2" t="b">
@@ -2941,7 +2941,7 @@
       </c>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -2969,7 +2969,7 @@
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G49" s="2" t="b">
@@ -2981,11 +2981,11 @@
         </is>
       </c>
       <c r="I49" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K49" s="2" t="b">
@@ -2993,7 +2993,7 @@
       </c>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -3021,7 +3021,7 @@
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G50" s="2" t="b">
@@ -3033,11 +3033,11 @@
         </is>
       </c>
       <c r="I50" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K50" s="2" t="b">
@@ -3045,317 +3045,317 @@
       </c>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n">
+      <c r="A51" t="n">
         <v>4</v>
       </c>
-      <c r="B51" s="2" t="inlineStr">
+      <c r="B51" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C51" s="2" t="inlineStr">
+      <c r="C51" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="D51" s="2" t="n">
+      <c r="D51" t="n">
         <v>3</v>
       </c>
-      <c r="E51" s="2" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F51" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G51" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I51" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K51" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L51" s="2" t="inlineStr">
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I51" t="b">
+        <v>1</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K51" t="b">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n">
+      <c r="A52" t="n">
         <v>4</v>
       </c>
-      <c r="B52" s="2" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C52" s="2" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>Recorder</t>
         </is>
       </c>
-      <c r="D52" s="2" t="n">
+      <c r="D52" t="n">
         <v>4</v>
       </c>
-      <c r="E52" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F52" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G52" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I52" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J52" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K52" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L52" s="2" t="inlineStr">
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I52" t="b">
+        <v>1</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K52" t="b">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="n">
+      <c r="A53" t="n">
         <v>4</v>
       </c>
-      <c r="B53" s="2" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C53" s="2" t="inlineStr">
+      <c r="C53" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="D53" s="2" t="n">
+      <c r="D53" t="n">
         <v>5</v>
       </c>
-      <c r="E53" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F53" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G53" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I53" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K53" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L53" s="2" t="inlineStr">
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I53" t="b">
+        <v>1</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K53" t="b">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n">
+      <c r="A54" t="n">
         <v>4</v>
       </c>
-      <c r="B54" s="2" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C54" s="2" t="inlineStr">
+      <c r="C54" t="inlineStr">
         <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="D54" s="2" t="n">
+      <c r="D54" t="n">
         <v>6</v>
       </c>
-      <c r="E54" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F54" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G54" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I54" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K54" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L54" s="2" t="inlineStr">
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I54" t="b">
+        <v>1</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K54" t="b">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="n">
+      <c r="A55" t="n">
         <v>4</v>
       </c>
-      <c r="B55" s="2" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C55" s="2" t="inlineStr">
+      <c r="C55" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D55" s="2" t="n">
+      <c r="D55" t="n">
         <v>7</v>
       </c>
-      <c r="E55" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F55" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G55" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I55" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J55" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K55" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L55" s="2" t="inlineStr">
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I55" t="b">
+        <v>1</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K55" t="b">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="n">
+      <c r="A56" t="n">
         <v>4</v>
       </c>
-      <c r="B56" s="2" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C56" s="2" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D56" s="2" t="n">
+      <c r="D56" t="n">
         <v>8</v>
       </c>
-      <c r="E56" s="2" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F56" s="2" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G56" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I56" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J56" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K56" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L56" s="2" t="inlineStr">
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I56" t="b">
+        <v>1</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K56" t="b">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -3593,7 +3593,7 @@
       </c>
       <c r="F61" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G61" s="2" t="b">
@@ -3617,7 +3617,7 @@
       </c>
       <c r="L61" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -4581,7 +4581,7 @@
       </c>
       <c r="F80" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G80" s="2" t="b">
@@ -4605,7 +4605,7 @@
       </c>
       <c r="L80" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -6118,260 +6118,260 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="n">
+      <c r="A110" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B110" s="2" t="inlineStr">
         <is>
           <t>Critical low battery Recharge promptly .</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="C110" s="2" t="inlineStr">
         <is>
           <t>Critical</t>
         </is>
       </c>
-      <c r="D110" t="n">
-        <v>0</v>
-      </c>
-      <c r="E110" t="inlineStr">
+      <c r="D110" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E110" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="F110" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G110" t="b">
-        <v>1</v>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I110" t="b">
-        <v>1</v>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K110" t="b">
-        <v>1</v>
-      </c>
-      <c r="L110" t="inlineStr">
+      <c r="G110" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H110" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I110" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J110" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K110" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L110" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="n">
+      <c r="A111" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="B111" s="2" t="inlineStr">
         <is>
           <t>Critical low battery Recharge promptly .</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="C111" s="2" t="inlineStr">
         <is>
           <t>low</t>
         </is>
       </c>
-      <c r="D111" t="n">
-        <v>1</v>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G111" t="b">
-        <v>1</v>
-      </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I111" t="b">
-        <v>1</v>
-      </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K111" t="b">
-        <v>1</v>
-      </c>
-      <c r="L111" t="inlineStr">
+      <c r="D111" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E111" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F111" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G111" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H111" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I111" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J111" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K111" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L111" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="n">
+      <c r="A112" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B112" s="2" t="inlineStr">
         <is>
           <t>Critical low battery Recharge promptly .</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="C112" s="2" t="inlineStr">
         <is>
           <t>battery</t>
         </is>
       </c>
-      <c r="D112" t="n">
+      <c r="D112" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="E112" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G112" t="b">
-        <v>1</v>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I112" t="b">
-        <v>1</v>
-      </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K112" t="b">
-        <v>1</v>
-      </c>
-      <c r="L112" t="inlineStr">
+      <c r="F112" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G112" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H112" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I112" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J112" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K112" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L112" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="2" t="n">
+      <c r="A113" t="n">
         <v>11</v>
       </c>
-      <c r="B113" s="2" t="inlineStr">
+      <c r="B113" t="inlineStr">
         <is>
           <t>Critical low battery Recharge promptly .</t>
         </is>
       </c>
-      <c r="C113" s="2" t="inlineStr">
+      <c r="C113" t="inlineStr">
         <is>
           <t>Recharge</t>
         </is>
       </c>
-      <c r="D113" s="2" t="n">
+      <c r="D113" t="n">
         <v>3</v>
       </c>
-      <c r="E113" s="2" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F113" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G113" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H113" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I113" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J113" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K113" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L113" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G113" t="b">
+        <v>1</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I113" t="b">
+        <v>1</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K113" t="b">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="2" t="n">
+      <c r="A114" t="n">
         <v>11</v>
       </c>
-      <c r="B114" s="2" t="inlineStr">
+      <c r="B114" t="inlineStr">
         <is>
           <t>Critical low battery Recharge promptly .</t>
         </is>
       </c>
-      <c r="C114" s="2" t="inlineStr">
+      <c r="C114" t="inlineStr">
         <is>
           <t>promptly</t>
         </is>
       </c>
-      <c r="D114" s="2" t="n">
+      <c r="D114" t="n">
         <v>4</v>
       </c>
-      <c r="E114" s="2" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F114" s="2" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G114" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H114" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I114" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J114" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K114" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L114" s="2" t="inlineStr">
+      <c r="G114" t="b">
+        <v>1</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I114" t="b">
+        <v>1</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K114" t="b">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -6586,156 +6586,156 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="2" t="n">
+      <c r="A119" t="n">
         <v>12</v>
       </c>
-      <c r="B119" s="2" t="inlineStr">
+      <c r="B119" t="inlineStr">
         <is>
           <t>Vision sensor(s) blocked Fly with caution .</t>
         </is>
       </c>
-      <c r="C119" s="2" t="inlineStr">
+      <c r="C119" t="inlineStr">
         <is>
           <t>Fly</t>
         </is>
       </c>
-      <c r="D119" s="2" t="n">
+      <c r="D119" t="n">
         <v>3</v>
       </c>
-      <c r="E119" s="2" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F119" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G119" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H119" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I119" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J119" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K119" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L119" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G119" t="b">
+        <v>1</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I119" t="b">
+        <v>1</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K119" t="b">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="2" t="n">
+      <c r="A120" t="n">
         <v>12</v>
       </c>
-      <c r="B120" s="2" t="inlineStr">
+      <c r="B120" t="inlineStr">
         <is>
           <t>Vision sensor(s) blocked Fly with caution .</t>
         </is>
       </c>
-      <c r="C120" s="2" t="inlineStr">
+      <c r="C120" t="inlineStr">
         <is>
           <t>with</t>
         </is>
       </c>
-      <c r="D120" s="2" t="n">
+      <c r="D120" t="n">
         <v>4</v>
       </c>
-      <c r="E120" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F120" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G120" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H120" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I120" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J120" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K120" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L120" s="2" t="inlineStr">
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G120" t="b">
+        <v>1</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I120" t="b">
+        <v>1</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K120" t="b">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="2" t="n">
+      <c r="A121" t="n">
         <v>12</v>
       </c>
-      <c r="B121" s="2" t="inlineStr">
+      <c r="B121" t="inlineStr">
         <is>
           <t>Vision sensor(s) blocked Fly with caution .</t>
         </is>
       </c>
-      <c r="C121" s="2" t="inlineStr">
+      <c r="C121" t="inlineStr">
         <is>
           <t>caution</t>
         </is>
       </c>
-      <c r="D121" s="2" t="n">
+      <c r="D121" t="n">
         <v>5</v>
       </c>
-      <c r="E121" s="2" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F121" s="2" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G121" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H121" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I121" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J121" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K121" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L121" s="2" t="inlineStr">
+      <c r="G121" t="b">
+        <v>1</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I121" t="b">
+        <v>1</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K121" t="b">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -7990,416 +7990,416 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="2" t="n">
+      <c r="A146" t="n">
         <v>14</v>
       </c>
-      <c r="B146" s="2" t="inlineStr">
+      <c r="B146" t="inlineStr">
         <is>
           <t>Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C146" s="2" t="inlineStr">
+      <c r="C146" t="inlineStr">
         <is>
           <t>Lower</t>
         </is>
       </c>
-      <c r="D146" s="2" t="n">
+      <c r="D146" t="n">
         <v>7</v>
       </c>
-      <c r="E146" s="2" t="inlineStr">
+      <c r="E146" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F146" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G146" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H146" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I146" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J146" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K146" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L146" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G146" t="b">
+        <v>1</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I146" t="b">
+        <v>1</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K146" t="b">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="2" t="n">
+      <c r="A147" t="n">
         <v>14</v>
       </c>
-      <c r="B147" s="2" t="inlineStr">
+      <c r="B147" t="inlineStr">
         <is>
           <t>Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C147" s="2" t="inlineStr">
+      <c r="C147" t="inlineStr">
         <is>
           <t>altitude</t>
         </is>
       </c>
-      <c r="D147" s="2" t="n">
+      <c r="D147" t="n">
         <v>8</v>
       </c>
-      <c r="E147" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F147" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G147" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H147" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I147" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J147" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K147" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L147" s="2" t="inlineStr">
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G147" t="b">
+        <v>1</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I147" t="b">
+        <v>1</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K147" t="b">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="2" t="n">
+      <c r="A148" t="n">
         <v>14</v>
       </c>
-      <c r="B148" s="2" t="inlineStr">
+      <c r="B148" t="inlineStr">
         <is>
           <t>Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C148" s="2" t="inlineStr">
+      <c r="C148" t="inlineStr">
         <is>
           <t>immediately</t>
         </is>
       </c>
-      <c r="D148" s="2" t="n">
+      <c r="D148" t="n">
         <v>9</v>
       </c>
-      <c r="E148" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F148" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G148" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H148" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I148" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J148" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K148" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L148" s="2" t="inlineStr">
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G148" t="b">
+        <v>1</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I148" t="b">
+        <v>1</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K148" t="b">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="2" t="n">
+      <c r="A149" t="n">
         <v>14</v>
       </c>
-      <c r="B149" s="2" t="inlineStr">
+      <c r="B149" t="inlineStr">
         <is>
           <t>Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C149" s="2" t="inlineStr">
+      <c r="C149" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D149" s="2" t="n">
+      <c r="D149" t="n">
         <v>10</v>
       </c>
-      <c r="E149" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F149" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G149" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H149" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I149" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J149" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K149" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L149" s="2" t="inlineStr">
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G149" t="b">
+        <v>1</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I149" t="b">
+        <v>1</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K149" t="b">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="2" t="n">
+      <c r="A150" t="n">
         <v>14</v>
       </c>
-      <c r="B150" s="2" t="inlineStr">
+      <c r="B150" t="inlineStr">
         <is>
           <t>Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C150" s="2" t="inlineStr">
+      <c r="C150" t="inlineStr">
         <is>
           <t>return</t>
         </is>
       </c>
-      <c r="D150" s="2" t="n">
+      <c r="D150" t="n">
         <v>11</v>
       </c>
-      <c r="E150" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F150" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G150" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H150" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I150" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J150" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K150" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L150" s="2" t="inlineStr">
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G150" t="b">
+        <v>1</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I150" t="b">
+        <v>1</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K150" t="b">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="2" t="n">
+      <c r="A151" t="n">
         <v>14</v>
       </c>
-      <c r="B151" s="2" t="inlineStr">
+      <c r="B151" t="inlineStr">
         <is>
           <t>Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C151" s="2" t="inlineStr">
+      <c r="C151" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D151" s="2" t="n">
+      <c r="D151" t="n">
         <v>12</v>
       </c>
-      <c r="E151" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F151" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G151" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H151" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I151" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J151" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K151" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L151" s="2" t="inlineStr">
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G151" t="b">
+        <v>1</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I151" t="b">
+        <v>1</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K151" t="b">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="2" t="n">
+      <c r="A152" t="n">
         <v>14</v>
       </c>
-      <c r="B152" s="2" t="inlineStr">
+      <c r="B152" t="inlineStr">
         <is>
           <t>Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C152" s="2" t="inlineStr">
+      <c r="C152" t="inlineStr">
         <is>
           <t>home</t>
         </is>
       </c>
-      <c r="D152" s="2" t="n">
+      <c r="D152" t="n">
         <v>13</v>
       </c>
-      <c r="E152" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F152" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G152" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H152" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I152" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J152" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K152" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L152" s="2" t="inlineStr">
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G152" t="b">
+        <v>1</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I152" t="b">
+        <v>1</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K152" t="b">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="2" t="n">
+      <c r="A153" t="n">
         <v>14</v>
       </c>
-      <c r="B153" s="2" t="inlineStr">
+      <c r="B153" t="inlineStr">
         <is>
           <t>Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C153" s="2" t="inlineStr">
+      <c r="C153" t="inlineStr">
         <is>
           <t>manually</t>
         </is>
       </c>
-      <c r="D153" s="2" t="n">
+      <c r="D153" t="n">
         <v>14</v>
       </c>
-      <c r="E153" s="2" t="inlineStr">
+      <c r="E153" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F153" s="2" t="inlineStr">
+      <c r="F153" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G153" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H153" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I153" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J153" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K153" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L153" s="2" t="inlineStr">
+      <c r="G153" t="b">
+        <v>1</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I153" t="b">
+        <v>1</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K153" t="b">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -9238,364 +9238,364 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="n">
+      <c r="A170" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B170" t="inlineStr">
+      <c r="B170" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C170" t="inlineStr">
+      <c r="C170" s="2" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D170" t="n">
+      <c r="D170" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E170" t="inlineStr">
+      <c r="E170" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G170" t="b">
-        <v>1</v>
-      </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I170" t="b">
-        <v>1</v>
-      </c>
-      <c r="J170" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K170" t="b">
-        <v>1</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F170" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G170" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H170" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I170" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J170" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K170" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L170" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="n">
+      <c r="A171" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B171" t="inlineStr">
+      <c r="B171" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C171" t="inlineStr">
+      <c r="C171" s="2" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D171" t="n">
+      <c r="D171" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G171" t="b">
-        <v>1</v>
-      </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I171" t="b">
-        <v>1</v>
-      </c>
-      <c r="J171" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K171" t="b">
-        <v>1</v>
-      </c>
-      <c r="L171" t="inlineStr">
+      <c r="E171" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F171" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G171" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H171" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I171" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J171" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K171" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L171" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="n">
+      <c r="A172" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B172" t="inlineStr">
+      <c r="B172" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C172" t="inlineStr">
+      <c r="C172" s="2" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="D172" t="n">
+      <c r="D172" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G172" t="b">
-        <v>1</v>
-      </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I172" t="b">
-        <v>1</v>
-      </c>
-      <c r="J172" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K172" t="b">
-        <v>1</v>
-      </c>
-      <c r="L172" t="inlineStr">
+      <c r="E172" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F172" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G172" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H172" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I172" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J172" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K172" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L172" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="n">
+      <c r="A173" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B173" t="inlineStr">
+      <c r="B173" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C173" t="inlineStr">
+      <c r="C173" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D173" t="n">
+      <c r="D173" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G173" t="b">
-        <v>1</v>
-      </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I173" t="b">
-        <v>1</v>
-      </c>
-      <c r="J173" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K173" t="b">
-        <v>1</v>
-      </c>
-      <c r="L173" t="inlineStr">
+      <c r="E173" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F173" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G173" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H173" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I173" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J173" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K173" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L173" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="n">
+      <c r="A174" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B174" t="inlineStr">
+      <c r="B174" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C174" t="inlineStr">
+      <c r="C174" s="2" t="inlineStr">
         <is>
           <t>arrange</t>
         </is>
       </c>
-      <c r="D174" t="n">
+      <c r="D174" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G174" t="b">
-        <v>1</v>
-      </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I174" t="b">
-        <v>1</v>
-      </c>
-      <c r="J174" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K174" t="b">
-        <v>1</v>
-      </c>
-      <c r="L174" t="inlineStr">
+      <c r="E174" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F174" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G174" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H174" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I174" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J174" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K174" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L174" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="n">
+      <c r="A175" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B175" t="inlineStr">
+      <c r="B175" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr">
+      <c r="C175" s="2" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D175" t="n">
+      <c r="D175" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G175" t="b">
-        <v>1</v>
-      </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I175" t="b">
-        <v>1</v>
-      </c>
-      <c r="J175" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K175" t="b">
-        <v>1</v>
-      </c>
-      <c r="L175" t="inlineStr">
+      <c r="E175" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F175" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G175" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H175" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I175" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J175" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K175" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L175" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="n">
+      <c r="A176" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B176" t="inlineStr">
+      <c r="B176" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C176" t="inlineStr">
+      <c r="C176" s="2" t="inlineStr">
         <is>
           <t>repairs</t>
         </is>
       </c>
-      <c r="D176" t="n">
+      <c r="D176" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E176" t="inlineStr">
+      <c r="E176" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
+      <c r="F176" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G176" t="b">
-        <v>1</v>
-      </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I176" t="b">
-        <v>1</v>
-      </c>
-      <c r="J176" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K176" t="b">
-        <v>1</v>
-      </c>
-      <c r="L176" t="inlineStr">
+      <c r="G176" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H176" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I176" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J176" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K176" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L176" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -13369,7 +13369,7 @@
       </c>
       <c r="F249" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G249" s="2" t="b">
@@ -13393,7 +13393,7 @@
       </c>
       <c r="L249" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -15657,7 +15657,7 @@
       </c>
       <c r="F293" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G293" s="2" t="b">
@@ -15681,7 +15681,7 @@
       </c>
       <c r="L293" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -16073,7 +16073,7 @@
       </c>
       <c r="F301" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G301" s="2" t="b">
@@ -16097,7 +16097,7 @@
       </c>
       <c r="L301" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -16333,7 +16333,7 @@
       </c>
       <c r="F306" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G306" s="2" t="b">
@@ -16357,7 +16357,7 @@
       </c>
       <c r="L306" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -16385,7 +16385,7 @@
       </c>
       <c r="F307" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G307" s="2" t="b">
@@ -16409,7 +16409,7 @@
       </c>
       <c r="L307" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -16437,7 +16437,7 @@
       </c>
       <c r="F308" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G308" s="2" t="b">
@@ -16461,7 +16461,7 @@
       </c>
       <c r="L308" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -16489,7 +16489,7 @@
       </c>
       <c r="F309" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G309" s="2" t="b">
@@ -16513,7 +16513,7 @@
       </c>
       <c r="L309" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -20557,11 +20557,11 @@
         </is>
       </c>
       <c r="I387" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J387" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K387" s="2" t="b">
@@ -20609,11 +20609,11 @@
         </is>
       </c>
       <c r="I388" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J388" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K388" s="2" t="b">
@@ -20661,11 +20661,11 @@
         </is>
       </c>
       <c r="I389" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J389" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K389" s="2" t="b">
@@ -20713,11 +20713,11 @@
         </is>
       </c>
       <c r="I390" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J390" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K390" s="2" t="b">
@@ -20730,262 +20730,262 @@
       </c>
     </row>
     <row r="391">
-      <c r="A391" t="n">
+      <c r="A391" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B391" t="inlineStr">
+      <c r="B391" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C391" t="inlineStr">
+      <c r="C391" s="2" t="inlineStr">
         <is>
           <t>Change</t>
         </is>
       </c>
-      <c r="D391" t="n">
+      <c r="D391" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E391" t="inlineStr">
+      <c r="E391" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F391" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G391" t="b">
-        <v>1</v>
-      </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I391" t="b">
-        <v>1</v>
-      </c>
-      <c r="J391" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K391" t="b">
-        <v>1</v>
-      </c>
-      <c r="L391" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F391" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G391" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H391" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I391" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J391" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K391" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L391" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="392">
-      <c r="A392" t="n">
+      <c r="A392" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B392" t="inlineStr">
+      <c r="B392" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C392" t="inlineStr">
+      <c r="C392" s="2" t="inlineStr">
         <is>
           <t>card</t>
         </is>
       </c>
-      <c r="D392" t="n">
+      <c r="D392" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E392" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F392" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G392" t="b">
-        <v>1</v>
-      </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I392" t="b">
-        <v>1</v>
-      </c>
-      <c r="J392" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K392" t="b">
-        <v>1</v>
-      </c>
-      <c r="L392" t="inlineStr">
+      <c r="E392" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F392" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G392" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H392" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I392" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J392" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K392" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L392" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="393">
-      <c r="A393" t="n">
+      <c r="A393" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B393" t="inlineStr">
+      <c r="B393" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C393" t="inlineStr">
+      <c r="C393" s="2" t="inlineStr">
         <is>
           <t>or</t>
         </is>
       </c>
-      <c r="D393" t="n">
+      <c r="D393" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E393" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F393" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G393" t="b">
-        <v>1</v>
-      </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I393" t="b">
-        <v>1</v>
-      </c>
-      <c r="J393" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K393" t="b">
-        <v>1</v>
-      </c>
-      <c r="L393" t="inlineStr">
+      <c r="E393" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F393" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G393" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H393" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I393" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J393" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K393" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L393" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="394">
-      <c r="A394" t="n">
+      <c r="A394" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B394" t="inlineStr">
+      <c r="B394" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C394" t="inlineStr">
+      <c r="C394" s="2" t="inlineStr">
         <is>
           <t>delete</t>
         </is>
       </c>
-      <c r="D394" t="n">
+      <c r="D394" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E394" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F394" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G394" t="b">
-        <v>1</v>
-      </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I394" t="b">
-        <v>1</v>
-      </c>
-      <c r="J394" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K394" t="b">
-        <v>1</v>
-      </c>
-      <c r="L394" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E394" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F394" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G394" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H394" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I394" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J394" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K394" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L394" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="395">
-      <c r="A395" t="n">
+      <c r="A395" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B395" t="inlineStr">
+      <c r="B395" s="2" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C395" t="inlineStr">
+      <c r="C395" s="2" t="inlineStr">
         <is>
           <t>files</t>
         </is>
       </c>
-      <c r="D395" t="n">
+      <c r="D395" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E395" t="inlineStr">
+      <c r="E395" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F395" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G395" t="b">
-        <v>1</v>
-      </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I395" t="b">
-        <v>1</v>
-      </c>
-      <c r="J395" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K395" t="b">
-        <v>1</v>
-      </c>
-      <c r="L395" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F395" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G395" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H395" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I395" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J395" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K395" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L395" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -21978,210 +21978,210 @@
       </c>
     </row>
     <row r="415">
-      <c r="A415" t="n">
+      <c r="A415" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="B415" t="inlineStr">
+      <c r="B415" s="2" t="inlineStr">
         <is>
           <t>Downward vision sensor error Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C415" t="inlineStr">
+      <c r="C415" s="2" t="inlineStr">
         <is>
           <t>Downward</t>
         </is>
       </c>
-      <c r="D415" t="n">
-        <v>0</v>
-      </c>
-      <c r="E415" t="inlineStr">
+      <c r="D415" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E415" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F415" t="inlineStr">
+      <c r="F415" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G415" t="b">
-        <v>1</v>
-      </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I415" t="b">
-        <v>1</v>
-      </c>
-      <c r="J415" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K415" t="b">
-        <v>1</v>
-      </c>
-      <c r="L415" t="inlineStr">
+      <c r="G415" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H415" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I415" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J415" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K415" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L415" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="416">
-      <c r="A416" t="n">
+      <c r="A416" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="B416" t="inlineStr">
+      <c r="B416" s="2" t="inlineStr">
         <is>
           <t>Downward vision sensor error Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C416" t="inlineStr">
+      <c r="C416" s="2" t="inlineStr">
         <is>
           <t>vision</t>
         </is>
       </c>
-      <c r="D416" t="n">
-        <v>1</v>
-      </c>
-      <c r="E416" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F416" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G416" t="b">
-        <v>1</v>
-      </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I416" t="b">
-        <v>1</v>
-      </c>
-      <c r="J416" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K416" t="b">
-        <v>1</v>
-      </c>
-      <c r="L416" t="inlineStr">
+      <c r="D416" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E416" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F416" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G416" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H416" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I416" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J416" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K416" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L416" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="417">
-      <c r="A417" t="n">
+      <c r="A417" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="B417" t="inlineStr">
+      <c r="B417" s="2" t="inlineStr">
         <is>
           <t>Downward vision sensor error Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C417" t="inlineStr">
+      <c r="C417" s="2" t="inlineStr">
         <is>
           <t>sensor</t>
         </is>
       </c>
-      <c r="D417" t="n">
+      <c r="D417" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E417" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F417" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G417" t="b">
-        <v>1</v>
-      </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I417" t="b">
-        <v>1</v>
-      </c>
-      <c r="J417" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K417" t="b">
-        <v>1</v>
-      </c>
-      <c r="L417" t="inlineStr">
+      <c r="E417" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F417" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G417" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H417" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I417" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J417" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K417" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L417" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="418">
-      <c r="A418" t="n">
+      <c r="A418" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="B418" t="inlineStr">
+      <c r="B418" s="2" t="inlineStr">
         <is>
           <t>Downward vision sensor error Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C418" t="inlineStr">
+      <c r="C418" s="2" t="inlineStr">
         <is>
           <t>error</t>
         </is>
       </c>
-      <c r="D418" t="n">
+      <c r="D418" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E418" t="inlineStr">
+      <c r="E418" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F418" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G418" t="b">
-        <v>1</v>
-      </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I418" t="b">
-        <v>1</v>
-      </c>
-      <c r="J418" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K418" t="b">
-        <v>1</v>
-      </c>
-      <c r="L418" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F418" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G418" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H418" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I418" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J418" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K418" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L418" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -22914,210 +22914,210 @@
       </c>
     </row>
     <row r="433">
-      <c r="A433" s="2" t="n">
+      <c r="A433" t="n">
         <v>40</v>
       </c>
-      <c r="B433" s="2" t="inlineStr">
+      <c r="B433" t="inlineStr">
         <is>
           <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C433" s="2" t="inlineStr">
+      <c r="C433" t="inlineStr">
         <is>
           <t>Extended</t>
         </is>
       </c>
-      <c r="D433" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E433" s="2" t="inlineStr">
+      <c r="D433" t="n">
+        <v>0</v>
+      </c>
+      <c r="E433" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F433" s="2" t="inlineStr">
+      <c r="F433" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G433" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H433" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I433" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J433" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K433" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L433" s="2" t="inlineStr">
+      <c r="G433" t="b">
+        <v>1</v>
+      </c>
+      <c r="H433" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I433" t="b">
+        <v>1</v>
+      </c>
+      <c r="J433" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K433" t="b">
+        <v>1</v>
+      </c>
+      <c r="L433" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="434">
-      <c r="A434" s="2" t="n">
+      <c r="A434" t="n">
         <v>40</v>
       </c>
-      <c r="B434" s="2" t="inlineStr">
+      <c r="B434" t="inlineStr">
         <is>
           <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C434" s="2" t="inlineStr">
+      <c r="C434" t="inlineStr">
         <is>
           <t>flight</t>
         </is>
       </c>
-      <c r="D434" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E434" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F434" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G434" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H434" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I434" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J434" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K434" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L434" s="2" t="inlineStr">
+      <c r="D434" t="n">
+        <v>1</v>
+      </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G434" t="b">
+        <v>1</v>
+      </c>
+      <c r="H434" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I434" t="b">
+        <v>1</v>
+      </c>
+      <c r="J434" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K434" t="b">
+        <v>1</v>
+      </c>
+      <c r="L434" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="435">
-      <c r="A435" s="2" t="n">
+      <c r="A435" t="n">
         <v>40</v>
       </c>
-      <c r="B435" s="2" t="inlineStr">
+      <c r="B435" t="inlineStr">
         <is>
           <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C435" s="2" t="inlineStr">
+      <c r="C435" t="inlineStr">
         <is>
           <t>distance</t>
         </is>
       </c>
-      <c r="D435" s="2" t="n">
+      <c r="D435" t="n">
         <v>2</v>
       </c>
-      <c r="E435" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F435" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G435" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H435" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I435" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J435" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K435" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L435" s="2" t="inlineStr">
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F435" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G435" t="b">
+        <v>1</v>
+      </c>
+      <c r="H435" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I435" t="b">
+        <v>1</v>
+      </c>
+      <c r="J435" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K435" t="b">
+        <v>1</v>
+      </c>
+      <c r="L435" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="436">
-      <c r="A436" s="2" t="n">
+      <c r="A436" t="n">
         <v>40</v>
       </c>
-      <c r="B436" s="2" t="inlineStr">
+      <c r="B436" t="inlineStr">
         <is>
           <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C436" s="2" t="inlineStr">
+      <c r="C436" t="inlineStr">
         <is>
           <t>detected</t>
         </is>
       </c>
-      <c r="D436" s="2" t="n">
+      <c r="D436" t="n">
         <v>3</v>
       </c>
-      <c r="E436" s="2" t="inlineStr">
+      <c r="E436" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F436" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G436" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H436" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I436" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J436" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K436" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L436" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F436" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G436" t="b">
+        <v>1</v>
+      </c>
+      <c r="H436" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I436" t="b">
+        <v>1</v>
+      </c>
+      <c r="J436" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K436" t="b">
+        <v>1</v>
+      </c>
+      <c r="L436" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -24162,104 +24162,104 @@
       </c>
     </row>
     <row r="457">
-      <c r="A457" s="2" t="n">
+      <c r="A457" t="n">
         <v>42</v>
       </c>
-      <c r="B457" s="2" t="inlineStr">
+      <c r="B457" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C457" s="2" t="inlineStr">
+      <c r="C457" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D457" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E457" s="2" t="inlineStr">
+      <c r="D457" t="n">
+        <v>0</v>
+      </c>
+      <c r="E457" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F457" s="2" t="inlineStr">
+      <c r="F457" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G457" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H457" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I457" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J457" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K457" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L457" s="2" t="inlineStr">
+      <c r="G457" t="b">
+        <v>1</v>
+      </c>
+      <c r="H457" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I457" t="b">
+        <v>1</v>
+      </c>
+      <c r="J457" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K457" t="b">
+        <v>1</v>
+      </c>
+      <c r="L457" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="458">
-      <c r="A458" s="2" t="n">
+      <c r="A458" t="n">
         <v>42</v>
       </c>
-      <c r="B458" s="2" t="inlineStr">
+      <c r="B458" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C458" s="2" t="inlineStr">
+      <c r="C458" t="inlineStr">
         <is>
           <t>Interference</t>
         </is>
       </c>
-      <c r="D458" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E458" s="2" t="inlineStr">
+      <c r="D458" t="n">
+        <v>1</v>
+      </c>
+      <c r="E458" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F458" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G458" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H458" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I458" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J458" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K458" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L458" s="2" t="inlineStr">
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G458" t="b">
+        <v>1</v>
+      </c>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I458" t="b">
+        <v>1</v>
+      </c>
+      <c r="J458" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K458" t="b">
+        <v>1</v>
+      </c>
+      <c r="L458" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -24301,11 +24301,11 @@
         </is>
       </c>
       <c r="I459" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J459" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K459" s="2" t="b">
@@ -24341,7 +24341,7 @@
       </c>
       <c r="F460" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G460" s="2" t="b">
@@ -24353,11 +24353,11 @@
         </is>
       </c>
       <c r="I460" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J460" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K460" s="2" t="b">
@@ -24365,7 +24365,7 @@
       </c>
       <c r="L460" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -24393,7 +24393,7 @@
       </c>
       <c r="F461" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G461" s="2" t="b">
@@ -24405,11 +24405,11 @@
         </is>
       </c>
       <c r="I461" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J461" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K461" s="2" t="b">
@@ -24417,7 +24417,7 @@
       </c>
       <c r="L461" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -24445,7 +24445,7 @@
       </c>
       <c r="F462" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G462" s="2" t="b">
@@ -24457,11 +24457,11 @@
         </is>
       </c>
       <c r="I462" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J462" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K462" s="2" t="b">
@@ -24469,7 +24469,7 @@
       </c>
       <c r="L462" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -24734,366 +24734,366 @@
       </c>
     </row>
     <row r="468">
-      <c r="A468" s="2" t="n">
+      <c r="A468" t="n">
         <v>43</v>
       </c>
-      <c r="B468" s="2" t="inlineStr">
+      <c r="B468" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C468" s="2" t="inlineStr">
+      <c r="C468" t="inlineStr">
         <is>
           <t>Cool</t>
         </is>
       </c>
-      <c r="D468" s="2" t="n">
+      <c r="D468" t="n">
         <v>4</v>
       </c>
-      <c r="E468" s="2" t="inlineStr">
+      <c r="E468" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F468" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G468" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H468" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I468" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J468" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K468" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L468" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F468" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G468" t="b">
+        <v>1</v>
+      </c>
+      <c r="H468" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I468" t="b">
+        <v>1</v>
+      </c>
+      <c r="J468" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K468" t="b">
+        <v>1</v>
+      </c>
+      <c r="L468" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="469">
-      <c r="A469" s="2" t="n">
+      <c r="A469" t="n">
         <v>43</v>
       </c>
-      <c r="B469" s="2" t="inlineStr">
+      <c r="B469" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C469" s="2" t="inlineStr">
+      <c r="C469" t="inlineStr">
         <is>
           <t>down</t>
         </is>
       </c>
-      <c r="D469" s="2" t="n">
+      <c r="D469" t="n">
         <v>5</v>
       </c>
-      <c r="E469" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F469" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G469" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H469" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I469" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J469" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K469" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L469" s="2" t="inlineStr">
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F469" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G469" t="b">
+        <v>1</v>
+      </c>
+      <c r="H469" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I469" t="b">
+        <v>1</v>
+      </c>
+      <c r="J469" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K469" t="b">
+        <v>1</v>
+      </c>
+      <c r="L469" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="470">
-      <c r="A470" s="2" t="n">
+      <c r="A470" t="n">
         <v>43</v>
       </c>
-      <c r="B470" s="2" t="inlineStr">
+      <c r="B470" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C470" s="2" t="inlineStr">
+      <c r="C470" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D470" s="2" t="n">
+      <c r="D470" t="n">
         <v>6</v>
       </c>
-      <c r="E470" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F470" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G470" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H470" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I470" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J470" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K470" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L470" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F470" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G470" t="b">
+        <v>1</v>
+      </c>
+      <c r="H470" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I470" t="b">
+        <v>1</v>
+      </c>
+      <c r="J470" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K470" t="b">
+        <v>1</v>
+      </c>
+      <c r="L470" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="471">
-      <c r="A471" s="2" t="n">
+      <c r="A471" t="n">
         <v>43</v>
       </c>
-      <c r="B471" s="2" t="inlineStr">
+      <c r="B471" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C471" s="2" t="inlineStr">
+      <c r="C471" t="inlineStr">
         <is>
           <t>monitor</t>
         </is>
       </c>
-      <c r="D471" s="2" t="n">
+      <c r="D471" t="n">
         <v>7</v>
       </c>
-      <c r="E471" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F471" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G471" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H471" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I471" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J471" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K471" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L471" s="2" t="inlineStr">
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F471" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G471" t="b">
+        <v>1</v>
+      </c>
+      <c r="H471" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I471" t="b">
+        <v>1</v>
+      </c>
+      <c r="J471" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K471" t="b">
+        <v>1</v>
+      </c>
+      <c r="L471" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="472">
-      <c r="A472" s="2" t="n">
+      <c r="A472" t="n">
         <v>43</v>
       </c>
-      <c r="B472" s="2" t="inlineStr">
+      <c r="B472" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C472" s="2" t="inlineStr">
+      <c r="C472" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D472" s="2" t="n">
+      <c r="D472" t="n">
         <v>8</v>
       </c>
-      <c r="E472" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F472" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G472" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H472" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I472" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J472" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K472" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L472" s="2" t="inlineStr">
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F472" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G472" t="b">
+        <v>1</v>
+      </c>
+      <c r="H472" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I472" t="b">
+        <v>1</v>
+      </c>
+      <c r="J472" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K472" t="b">
+        <v>1</v>
+      </c>
+      <c r="L472" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="473">
-      <c r="A473" s="2" t="n">
+      <c r="A473" t="n">
         <v>43</v>
       </c>
-      <c r="B473" s="2" t="inlineStr">
+      <c r="B473" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C473" s="2" t="inlineStr">
+      <c r="C473" t="inlineStr">
         <is>
           <t>prevent</t>
         </is>
       </c>
-      <c r="D473" s="2" t="n">
+      <c r="D473" t="n">
         <v>9</v>
       </c>
-      <c r="E473" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F473" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G473" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H473" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I473" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J473" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K473" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L473" s="2" t="inlineStr">
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F473" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G473" t="b">
+        <v>1</v>
+      </c>
+      <c r="H473" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I473" t="b">
+        <v>1</v>
+      </c>
+      <c r="J473" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K473" t="b">
+        <v>1</v>
+      </c>
+      <c r="L473" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="474">
-      <c r="A474" s="2" t="n">
+      <c r="A474" t="n">
         <v>43</v>
       </c>
-      <c r="B474" s="2" t="inlineStr">
+      <c r="B474" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C474" s="2" t="inlineStr">
+      <c r="C474" t="inlineStr">
         <is>
           <t>overheating</t>
         </is>
       </c>
-      <c r="D474" s="2" t="n">
+      <c r="D474" t="n">
         <v>10</v>
       </c>
-      <c r="E474" s="2" t="inlineStr">
+      <c r="E474" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F474" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G474" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H474" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I474" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J474" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K474" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L474" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F474" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G474" t="b">
+        <v>1</v>
+      </c>
+      <c r="H474" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I474" t="b">
+        <v>1</v>
+      </c>
+      <c r="J474" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K474" t="b">
+        <v>1</v>
+      </c>
+      <c r="L474" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -25150,208 +25150,208 @@
       </c>
     </row>
     <row r="476">
-      <c r="A476" s="2" t="n">
+      <c r="A476" t="n">
         <v>44</v>
       </c>
-      <c r="B476" s="2" t="inlineStr">
+      <c r="B476" t="inlineStr">
         <is>
           <t>Aircraft takeoff altitude error Restart aircraft .</t>
         </is>
       </c>
-      <c r="C476" s="2" t="inlineStr">
+      <c r="C476" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D476" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E476" s="2" t="inlineStr">
+      <c r="D476" t="n">
+        <v>0</v>
+      </c>
+      <c r="E476" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F476" s="2" t="inlineStr">
+      <c r="F476" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G476" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H476" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I476" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J476" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K476" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L476" s="2" t="inlineStr">
+      <c r="G476" t="b">
+        <v>1</v>
+      </c>
+      <c r="H476" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I476" t="b">
+        <v>1</v>
+      </c>
+      <c r="J476" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K476" t="b">
+        <v>1</v>
+      </c>
+      <c r="L476" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="477">
-      <c r="A477" s="2" t="n">
+      <c r="A477" t="n">
         <v>44</v>
       </c>
-      <c r="B477" s="2" t="inlineStr">
+      <c r="B477" t="inlineStr">
         <is>
           <t>Aircraft takeoff altitude error Restart aircraft .</t>
         </is>
       </c>
-      <c r="C477" s="2" t="inlineStr">
+      <c r="C477" t="inlineStr">
         <is>
           <t>takeoff</t>
         </is>
       </c>
-      <c r="D477" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E477" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F477" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G477" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H477" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I477" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J477" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K477" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L477" s="2" t="inlineStr">
+      <c r="D477" t="n">
+        <v>1</v>
+      </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F477" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G477" t="b">
+        <v>1</v>
+      </c>
+      <c r="H477" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I477" t="b">
+        <v>1</v>
+      </c>
+      <c r="J477" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K477" t="b">
+        <v>1</v>
+      </c>
+      <c r="L477" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="478">
-      <c r="A478" s="2" t="n">
+      <c r="A478" t="n">
         <v>44</v>
       </c>
-      <c r="B478" s="2" t="inlineStr">
+      <c r="B478" t="inlineStr">
         <is>
           <t>Aircraft takeoff altitude error Restart aircraft .</t>
         </is>
       </c>
-      <c r="C478" s="2" t="inlineStr">
+      <c r="C478" t="inlineStr">
         <is>
           <t>altitude</t>
         </is>
       </c>
-      <c r="D478" s="2" t="n">
+      <c r="D478" t="n">
         <v>2</v>
       </c>
-      <c r="E478" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F478" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G478" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H478" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I478" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J478" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K478" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L478" s="2" t="inlineStr">
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F478" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G478" t="b">
+        <v>1</v>
+      </c>
+      <c r="H478" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I478" t="b">
+        <v>1</v>
+      </c>
+      <c r="J478" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K478" t="b">
+        <v>1</v>
+      </c>
+      <c r="L478" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="479">
-      <c r="A479" s="2" t="n">
+      <c r="A479" t="n">
         <v>44</v>
       </c>
-      <c r="B479" s="2" t="inlineStr">
+      <c r="B479" t="inlineStr">
         <is>
           <t>Aircraft takeoff altitude error Restart aircraft .</t>
         </is>
       </c>
-      <c r="C479" s="2" t="inlineStr">
+      <c r="C479" t="inlineStr">
         <is>
           <t>error</t>
         </is>
       </c>
-      <c r="D479" s="2" t="n">
+      <c r="D479" t="n">
         <v>3</v>
       </c>
-      <c r="E479" s="2" t="inlineStr">
+      <c r="E479" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F479" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G479" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H479" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I479" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J479" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K479" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L479" s="2" t="inlineStr">
+      <c r="F479" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G479" t="b">
+        <v>1</v>
+      </c>
+      <c r="H479" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I479" t="b">
+        <v>1</v>
+      </c>
+      <c r="J479" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K479" t="b">
+        <v>1</v>
+      </c>
+      <c r="L479" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -25393,11 +25393,11 @@
         </is>
       </c>
       <c r="I480" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J480" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K480" s="2" t="b">
@@ -25433,7 +25433,7 @@
       </c>
       <c r="F481" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G481" s="2" t="b">
@@ -25445,11 +25445,11 @@
         </is>
       </c>
       <c r="I481" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J481" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K481" s="2" t="b">
@@ -25457,7 +25457,7 @@
       </c>
       <c r="L481" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -25849,7 +25849,7 @@
       </c>
       <c r="F489" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G489" t="b">
@@ -25873,7 +25873,7 @@
       </c>
       <c r="L489" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -25901,7 +25901,7 @@
       </c>
       <c r="F490" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G490" s="2" t="b">

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem2/17/word_level_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem2/17/word_level_predictions_17.xlsx
@@ -658,104 +658,104 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" t="inlineStr">
+      <c r="A5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>IMU calibration required Calibrate IMU .</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="2" t="inlineStr">
         <is>
           <t>Calibrate</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K5" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" t="inlineStr">
+      <c r="A6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
         <is>
           <t>IMU calibration required Calibrate IMU .</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="2" t="inlineStr">
         <is>
           <t>IMU</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K6" t="b">
-        <v>1</v>
-      </c>
-      <c r="L6" t="inlineStr">
+      <c r="G6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -837,7 +837,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G8" s="2" t="b">
@@ -861,7 +861,7 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -889,7 +889,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G9" s="2" t="b">
@@ -913,7 +913,7 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -1906,312 +1906,312 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
+      <c r="A29" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" s="2" t="inlineStr">
         <is>
           <t>Critical low battery Return to home or land promptly .</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C29" s="2" t="inlineStr">
         <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="D29" t="n">
+      <c r="D29" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E29" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G29" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I29" t="b">
-        <v>1</v>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K29" t="b">
-        <v>1</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
+      <c r="A30" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" s="2" t="inlineStr">
         <is>
           <t>Critical low battery Return to home or land promptly .</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C30" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D30" t="n">
+      <c r="D30" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I30" t="b">
-        <v>1</v>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K30" t="b">
-        <v>1</v>
-      </c>
-      <c r="L30" t="inlineStr">
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
+      <c r="A31" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" s="2" t="inlineStr">
         <is>
           <t>Critical low battery Return to home or land promptly .</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C31" s="2" t="inlineStr">
         <is>
           <t>home</t>
         </is>
       </c>
-      <c r="D31" t="n">
+      <c r="D31" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G31" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I31" t="b">
-        <v>1</v>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K31" t="b">
-        <v>1</v>
-      </c>
-      <c r="L31" t="inlineStr">
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
+      <c r="A32" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" s="2" t="inlineStr">
         <is>
           <t>Critical low battery Return to home or land promptly .</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C32" s="2" t="inlineStr">
         <is>
           <t>or</t>
         </is>
       </c>
-      <c r="D32" t="n">
+      <c r="D32" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G32" t="b">
-        <v>1</v>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I32" t="b">
-        <v>1</v>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K32" t="b">
-        <v>1</v>
-      </c>
-      <c r="L32" t="inlineStr">
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
+      <c r="A33" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" s="2" t="inlineStr">
         <is>
           <t>Critical low battery Return to home or land promptly .</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C33" s="2" t="inlineStr">
         <is>
           <t>land</t>
         </is>
       </c>
-      <c r="D33" t="n">
+      <c r="D33" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G33" t="b">
-        <v>1</v>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I33" t="b">
-        <v>1</v>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K33" t="b">
-        <v>1</v>
-      </c>
-      <c r="L33" t="inlineStr">
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
+      <c r="A34" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" s="2" t="inlineStr">
         <is>
           <t>Critical low battery Return to home or land promptly .</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C34" s="2" t="inlineStr">
         <is>
           <t>promptly</t>
         </is>
       </c>
-      <c r="D34" t="n">
+      <c r="D34" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="E34" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="F34" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G34" t="b">
-        <v>1</v>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I34" t="b">
-        <v>1</v>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K34" t="b">
-        <v>1</v>
-      </c>
-      <c r="L34" t="inlineStr">
+      <c r="G34" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -2449,7 +2449,7 @@
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G39" s="2" t="b">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -2917,7 +2917,7 @@
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G48" s="2" t="b">
@@ -2929,11 +2929,11 @@
         </is>
       </c>
       <c r="I48" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K48" s="2" t="b">
@@ -2941,7 +2941,7 @@
       </c>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -2969,7 +2969,7 @@
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G49" s="2" t="b">
@@ -2981,11 +2981,11 @@
         </is>
       </c>
       <c r="I49" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K49" s="2" t="b">
@@ -2993,7 +2993,7 @@
       </c>
       <c r="L49" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3021,7 +3021,7 @@
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G50" s="2" t="b">
@@ -3033,11 +3033,11 @@
         </is>
       </c>
       <c r="I50" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K50" s="2" t="b">
@@ -3045,317 +3045,317 @@
       </c>
       <c r="L50" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
+      <c r="A51" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C51" s="2" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="D51" t="n">
+      <c r="D51" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="E51" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G51" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I51" t="b">
-        <v>1</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K51" t="b">
-        <v>1</v>
-      </c>
-      <c r="L51" t="inlineStr">
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
+      <c r="A52" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C52" s="2" t="inlineStr">
         <is>
           <t>Recorder</t>
         </is>
       </c>
-      <c r="D52" t="n">
+      <c r="D52" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G52" t="b">
-        <v>1</v>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I52" t="b">
-        <v>1</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K52" t="b">
-        <v>1</v>
-      </c>
-      <c r="L52" t="inlineStr">
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
+      <c r="A53" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C53" s="2" t="inlineStr">
         <is>
           <t>File</t>
         </is>
       </c>
-      <c r="D53" t="n">
+      <c r="D53" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G53" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I53" t="b">
-        <v>1</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K53" t="b">
-        <v>1</v>
-      </c>
-      <c r="L53" t="inlineStr">
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
+      <c r="A54" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C54" s="2" t="inlineStr">
         <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="D54" t="n">
+      <c r="D54" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G54" t="b">
-        <v>1</v>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I54" t="b">
-        <v>1</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K54" t="b">
-        <v>1</v>
-      </c>
-      <c r="L54" t="inlineStr">
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
+      <c r="A55" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C55" s="2" t="inlineStr">
         <is>
           <t>is</t>
         </is>
       </c>
-      <c r="D55" t="n">
+      <c r="D55" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G55" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I55" t="b">
-        <v>1</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K55" t="b">
-        <v>1</v>
-      </c>
-      <c r="L55" t="inlineStr">
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
+      <c r="A56" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" s="2" t="inlineStr">
         <is>
           <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C56" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="D56" t="n">
+      <c r="D56" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="E56" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="F56" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G56" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I56" t="b">
-        <v>1</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K56" t="b">
-        <v>1</v>
-      </c>
-      <c r="L56" t="inlineStr">
+      <c r="G56" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L56" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -3593,7 +3593,7 @@
       </c>
       <c r="F61" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G61" s="2" t="b">
@@ -3617,7 +3617,7 @@
       </c>
       <c r="L61" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -4581,7 +4581,7 @@
       </c>
       <c r="F80" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G80" s="2" t="b">
@@ -4605,7 +4605,7 @@
       </c>
       <c r="L80" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -6118,260 +6118,260 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="2" t="n">
+      <c r="A110" t="n">
         <v>11</v>
       </c>
-      <c r="B110" s="2" t="inlineStr">
+      <c r="B110" t="inlineStr">
         <is>
           <t>Critical low battery Recharge promptly .</t>
         </is>
       </c>
-      <c r="C110" s="2" t="inlineStr">
+      <c r="C110" t="inlineStr">
         <is>
           <t>Critical</t>
         </is>
       </c>
-      <c r="D110" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E110" s="2" t="inlineStr">
+      <c r="D110" t="n">
+        <v>0</v>
+      </c>
+      <c r="E110" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F110" s="2" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G110" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H110" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I110" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J110" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K110" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L110" s="2" t="inlineStr">
+      <c r="G110" t="b">
+        <v>1</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I110" t="b">
+        <v>1</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K110" t="b">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="2" t="n">
+      <c r="A111" t="n">
         <v>11</v>
       </c>
-      <c r="B111" s="2" t="inlineStr">
+      <c r="B111" t="inlineStr">
         <is>
           <t>Critical low battery Recharge promptly .</t>
         </is>
       </c>
-      <c r="C111" s="2" t="inlineStr">
+      <c r="C111" t="inlineStr">
         <is>
           <t>low</t>
         </is>
       </c>
-      <c r="D111" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E111" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F111" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G111" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H111" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I111" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J111" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K111" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L111" s="2" t="inlineStr">
+      <c r="D111" t="n">
+        <v>1</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G111" t="b">
+        <v>1</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I111" t="b">
+        <v>1</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K111" t="b">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="2" t="n">
+      <c r="A112" t="n">
         <v>11</v>
       </c>
-      <c r="B112" s="2" t="inlineStr">
+      <c r="B112" t="inlineStr">
         <is>
           <t>Critical low battery Recharge promptly .</t>
         </is>
       </c>
-      <c r="C112" s="2" t="inlineStr">
+      <c r="C112" t="inlineStr">
         <is>
           <t>battery</t>
         </is>
       </c>
-      <c r="D112" s="2" t="n">
+      <c r="D112" t="n">
         <v>2</v>
       </c>
-      <c r="E112" s="2" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F112" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G112" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H112" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I112" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J112" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K112" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L112" s="2" t="inlineStr">
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G112" t="b">
+        <v>1</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I112" t="b">
+        <v>1</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K112" t="b">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="n">
+      <c r="A113" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="B113" s="2" t="inlineStr">
         <is>
           <t>Critical low battery Recharge promptly .</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="C113" s="2" t="inlineStr">
         <is>
           <t>Recharge</t>
         </is>
       </c>
-      <c r="D113" t="n">
+      <c r="D113" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="E113" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G113" t="b">
-        <v>1</v>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I113" t="b">
-        <v>1</v>
-      </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K113" t="b">
-        <v>1</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F113" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G113" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H113" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I113" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J113" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K113" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L113" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="n">
+      <c r="A114" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="B114" s="2" t="inlineStr">
         <is>
           <t>Critical low battery Recharge promptly .</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="C114" s="2" t="inlineStr">
         <is>
           <t>promptly</t>
         </is>
       </c>
-      <c r="D114" t="n">
+      <c r="D114" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="E114" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="F114" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G114" t="b">
-        <v>1</v>
-      </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I114" t="b">
-        <v>1</v>
-      </c>
-      <c r="J114" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K114" t="b">
-        <v>1</v>
-      </c>
-      <c r="L114" t="inlineStr">
+      <c r="G114" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H114" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I114" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J114" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K114" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L114" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -6586,156 +6586,156 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="n">
+      <c r="A119" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="B119" s="2" t="inlineStr">
         <is>
           <t>Vision sensor(s) blocked Fly with caution .</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="C119" s="2" t="inlineStr">
         <is>
           <t>Fly</t>
         </is>
       </c>
-      <c r="D119" t="n">
+      <c r="D119" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="E119" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G119" t="b">
-        <v>1</v>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I119" t="b">
-        <v>1</v>
-      </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K119" t="b">
-        <v>1</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F119" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G119" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H119" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I119" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J119" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K119" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L119" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="n">
+      <c r="A120" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="B120" s="2" t="inlineStr">
         <is>
           <t>Vision sensor(s) blocked Fly with caution .</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="C120" s="2" t="inlineStr">
         <is>
           <t>with</t>
         </is>
       </c>
-      <c r="D120" t="n">
+      <c r="D120" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G120" t="b">
-        <v>1</v>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I120" t="b">
-        <v>1</v>
-      </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K120" t="b">
-        <v>1</v>
-      </c>
-      <c r="L120" t="inlineStr">
+      <c r="E120" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F120" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G120" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H120" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I120" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J120" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K120" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L120" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="n">
+      <c r="A121" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="B121" s="2" t="inlineStr">
         <is>
           <t>Vision sensor(s) blocked Fly with caution .</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="C121" s="2" t="inlineStr">
         <is>
           <t>caution</t>
         </is>
       </c>
-      <c r="D121" t="n">
+      <c r="D121" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E121" t="inlineStr">
+      <c r="E121" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="F121" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G121" t="b">
-        <v>1</v>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I121" t="b">
-        <v>1</v>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K121" t="b">
-        <v>1</v>
-      </c>
-      <c r="L121" t="inlineStr">
+      <c r="G121" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H121" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I121" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J121" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K121" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L121" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -7990,416 +7990,416 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="n">
+      <c r="A146" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B146" t="inlineStr">
+      <c r="B146" s="2" t="inlineStr">
         <is>
           <t>Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr">
+      <c r="C146" s="2" t="inlineStr">
         <is>
           <t>Lower</t>
         </is>
       </c>
-      <c r="D146" t="n">
+      <c r="D146" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E146" t="inlineStr">
+      <c r="E146" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G146" t="b">
-        <v>1</v>
-      </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I146" t="b">
-        <v>1</v>
-      </c>
-      <c r="J146" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K146" t="b">
-        <v>1</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F146" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G146" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H146" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I146" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J146" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K146" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L146" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="n">
+      <c r="A147" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B147" t="inlineStr">
+      <c r="B147" s="2" t="inlineStr">
         <is>
           <t>Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C147" t="inlineStr">
+      <c r="C147" s="2" t="inlineStr">
         <is>
           <t>altitude</t>
         </is>
       </c>
-      <c r="D147" t="n">
+      <c r="D147" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G147" t="b">
-        <v>1</v>
-      </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I147" t="b">
-        <v>1</v>
-      </c>
-      <c r="J147" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K147" t="b">
-        <v>1</v>
-      </c>
-      <c r="L147" t="inlineStr">
+      <c r="E147" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F147" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G147" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H147" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I147" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J147" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K147" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L147" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="n">
+      <c r="A148" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B148" t="inlineStr">
+      <c r="B148" s="2" t="inlineStr">
         <is>
           <t>Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C148" t="inlineStr">
+      <c r="C148" s="2" t="inlineStr">
         <is>
           <t>immediately</t>
         </is>
       </c>
-      <c r="D148" t="n">
+      <c r="D148" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G148" t="b">
-        <v>1</v>
-      </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I148" t="b">
-        <v>1</v>
-      </c>
-      <c r="J148" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K148" t="b">
-        <v>1</v>
-      </c>
-      <c r="L148" t="inlineStr">
+      <c r="E148" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F148" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G148" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H148" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I148" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J148" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K148" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L148" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="n">
+      <c r="A149" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B149" t="inlineStr">
+      <c r="B149" s="2" t="inlineStr">
         <is>
           <t>Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr">
+      <c r="C149" s="2" t="inlineStr">
         <is>
           <t>and</t>
         </is>
       </c>
-      <c r="D149" t="n">
+      <c r="D149" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G149" t="b">
-        <v>1</v>
-      </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I149" t="b">
-        <v>1</v>
-      </c>
-      <c r="J149" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K149" t="b">
-        <v>1</v>
-      </c>
-      <c r="L149" t="inlineStr">
+      <c r="E149" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F149" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G149" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H149" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I149" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J149" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K149" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L149" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="n">
+      <c r="A150" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B150" t="inlineStr">
+      <c r="B150" s="2" t="inlineStr">
         <is>
           <t>Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr">
+      <c r="C150" s="2" t="inlineStr">
         <is>
           <t>return</t>
         </is>
       </c>
-      <c r="D150" t="n">
+      <c r="D150" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G150" t="b">
-        <v>1</v>
-      </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I150" t="b">
-        <v>1</v>
-      </c>
-      <c r="J150" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K150" t="b">
-        <v>1</v>
-      </c>
-      <c r="L150" t="inlineStr">
+      <c r="E150" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F150" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G150" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H150" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I150" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J150" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K150" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L150" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="n">
+      <c r="A151" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B151" t="inlineStr">
+      <c r="B151" s="2" t="inlineStr">
         <is>
           <t>Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr">
+      <c r="C151" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D151" t="n">
+      <c r="D151" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G151" t="b">
-        <v>1</v>
-      </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I151" t="b">
-        <v>1</v>
-      </c>
-      <c r="J151" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K151" t="b">
-        <v>1</v>
-      </c>
-      <c r="L151" t="inlineStr">
+      <c r="E151" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F151" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G151" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H151" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I151" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J151" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K151" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L151" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="n">
+      <c r="A152" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B152" t="inlineStr">
+      <c r="B152" s="2" t="inlineStr">
         <is>
           <t>Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C152" t="inlineStr">
+      <c r="C152" s="2" t="inlineStr">
         <is>
           <t>home</t>
         </is>
       </c>
-      <c r="D152" t="n">
+      <c r="D152" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G152" t="b">
-        <v>1</v>
-      </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I152" t="b">
-        <v>1</v>
-      </c>
-      <c r="J152" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K152" t="b">
-        <v>1</v>
-      </c>
-      <c r="L152" t="inlineStr">
+      <c r="E152" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F152" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G152" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H152" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I152" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J152" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K152" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L152" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="n">
+      <c r="A153" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B153" t="inlineStr">
+      <c r="B153" s="2" t="inlineStr">
         <is>
           <t>Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
-      <c r="C153" t="inlineStr">
+      <c r="C153" s="2" t="inlineStr">
         <is>
           <t>manually</t>
         </is>
       </c>
-      <c r="D153" t="n">
+      <c r="D153" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="E153" t="inlineStr">
+      <c r="E153" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
+      <c r="F153" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G153" t="b">
-        <v>1</v>
-      </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I153" t="b">
-        <v>1</v>
-      </c>
-      <c r="J153" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K153" t="b">
-        <v>1</v>
-      </c>
-      <c r="L153" t="inlineStr">
+      <c r="G153" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H153" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I153" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J153" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K153" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L153" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -9238,364 +9238,364 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="2" t="n">
+      <c r="A170" t="n">
         <v>16</v>
       </c>
-      <c r="B170" s="2" t="inlineStr">
+      <c r="B170" t="inlineStr">
         <is>
           <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C170" s="2" t="inlineStr">
+      <c r="C170" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D170" s="2" t="n">
+      <c r="D170" t="n">
         <v>5</v>
       </c>
-      <c r="E170" s="2" t="inlineStr">
+      <c r="E170" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F170" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G170" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H170" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I170" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J170" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K170" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L170" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_I</t>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G170" t="b">
+        <v>1</v>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I170" t="b">
+        <v>1</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K170" t="b">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="2" t="n">
+      <c r="A171" t="n">
         <v>16</v>
       </c>
-      <c r="B171" s="2" t="inlineStr">
+      <c r="B171" t="inlineStr">
         <is>
           <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C171" s="2" t="inlineStr">
+      <c r="C171" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D171" s="2" t="n">
+      <c r="D171" t="n">
         <v>6</v>
       </c>
-      <c r="E171" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F171" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G171" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H171" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I171" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J171" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K171" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L171" s="2" t="inlineStr">
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G171" t="b">
+        <v>1</v>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I171" t="b">
+        <v>1</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K171" t="b">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="2" t="n">
+      <c r="A172" t="n">
         <v>16</v>
       </c>
-      <c r="B172" s="2" t="inlineStr">
+      <c r="B172" t="inlineStr">
         <is>
           <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C172" s="2" t="inlineStr">
+      <c r="C172" t="inlineStr">
         <is>
           <t>Support</t>
         </is>
       </c>
-      <c r="D172" s="2" t="n">
+      <c r="D172" t="n">
         <v>7</v>
       </c>
-      <c r="E172" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F172" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G172" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H172" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I172" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J172" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K172" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L172" s="2" t="inlineStr">
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G172" t="b">
+        <v>1</v>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I172" t="b">
+        <v>1</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K172" t="b">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="2" t="n">
+      <c r="A173" t="n">
         <v>16</v>
       </c>
-      <c r="B173" s="2" t="inlineStr">
+      <c r="B173" t="inlineStr">
         <is>
           <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C173" s="2" t="inlineStr">
+      <c r="C173" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D173" s="2" t="n">
+      <c r="D173" t="n">
         <v>8</v>
       </c>
-      <c r="E173" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F173" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G173" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H173" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I173" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J173" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K173" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L173" s="2" t="inlineStr">
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G173" t="b">
+        <v>1</v>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I173" t="b">
+        <v>1</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K173" t="b">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="2" t="n">
+      <c r="A174" t="n">
         <v>16</v>
       </c>
-      <c r="B174" s="2" t="inlineStr">
+      <c r="B174" t="inlineStr">
         <is>
           <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C174" s="2" t="inlineStr">
+      <c r="C174" t="inlineStr">
         <is>
           <t>arrange</t>
         </is>
       </c>
-      <c r="D174" s="2" t="n">
+      <c r="D174" t="n">
         <v>9</v>
       </c>
-      <c r="E174" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F174" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G174" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H174" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I174" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J174" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K174" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L174" s="2" t="inlineStr">
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G174" t="b">
+        <v>1</v>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I174" t="b">
+        <v>1</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K174" t="b">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="2" t="n">
+      <c r="A175" t="n">
         <v>16</v>
       </c>
-      <c r="B175" s="2" t="inlineStr">
+      <c r="B175" t="inlineStr">
         <is>
           <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C175" s="2" t="inlineStr">
+      <c r="C175" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D175" s="2" t="n">
+      <c r="D175" t="n">
         <v>10</v>
       </c>
-      <c r="E175" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F175" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G175" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H175" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I175" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J175" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K175" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L175" s="2" t="inlineStr">
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G175" t="b">
+        <v>1</v>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I175" t="b">
+        <v>1</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K175" t="b">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="2" t="n">
+      <c r="A176" t="n">
         <v>16</v>
       </c>
-      <c r="B176" s="2" t="inlineStr">
+      <c r="B176" t="inlineStr">
         <is>
           <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C176" s="2" t="inlineStr">
+      <c r="C176" t="inlineStr">
         <is>
           <t>repairs</t>
         </is>
       </c>
-      <c r="D176" s="2" t="n">
+      <c r="D176" t="n">
         <v>11</v>
       </c>
-      <c r="E176" s="2" t="inlineStr">
+      <c r="E176" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F176" s="2" t="inlineStr">
+      <c r="F176" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G176" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H176" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I176" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J176" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K176" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L176" s="2" t="inlineStr">
+      <c r="G176" t="b">
+        <v>1</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I176" t="b">
+        <v>1</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K176" t="b">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -13369,7 +13369,7 @@
       </c>
       <c r="F249" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G249" s="2" t="b">
@@ -13393,7 +13393,7 @@
       </c>
       <c r="L249" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -15657,7 +15657,7 @@
       </c>
       <c r="F293" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G293" s="2" t="b">
@@ -15681,7 +15681,7 @@
       </c>
       <c r="L293" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -16073,7 +16073,7 @@
       </c>
       <c r="F301" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G301" s="2" t="b">
@@ -16097,7 +16097,7 @@
       </c>
       <c r="L301" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -16333,7 +16333,7 @@
       </c>
       <c r="F306" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G306" s="2" t="b">
@@ -16357,7 +16357,7 @@
       </c>
       <c r="L306" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -16385,7 +16385,7 @@
       </c>
       <c r="F307" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G307" s="2" t="b">
@@ -16409,7 +16409,7 @@
       </c>
       <c r="L307" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -16437,7 +16437,7 @@
       </c>
       <c r="F308" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G308" s="2" t="b">
@@ -16461,7 +16461,7 @@
       </c>
       <c r="L308" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -16489,7 +16489,7 @@
       </c>
       <c r="F309" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G309" s="2" t="b">
@@ -16513,7 +16513,7 @@
       </c>
       <c r="L309" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -20557,11 +20557,11 @@
         </is>
       </c>
       <c r="I387" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J387" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K387" s="2" t="b">
@@ -20609,11 +20609,11 @@
         </is>
       </c>
       <c r="I388" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J388" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K388" s="2" t="b">
@@ -20661,11 +20661,11 @@
         </is>
       </c>
       <c r="I389" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J389" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K389" s="2" t="b">
@@ -20713,11 +20713,11 @@
         </is>
       </c>
       <c r="I390" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J390" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K390" s="2" t="b">
@@ -20730,262 +20730,262 @@
       </c>
     </row>
     <row r="391">
-      <c r="A391" s="2" t="n">
+      <c r="A391" t="n">
         <v>35</v>
       </c>
-      <c r="B391" s="2" t="inlineStr">
+      <c r="B391" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C391" s="2" t="inlineStr">
+      <c r="C391" t="inlineStr">
         <is>
           <t>Change</t>
         </is>
       </c>
-      <c r="D391" s="2" t="n">
+      <c r="D391" t="n">
         <v>4</v>
       </c>
-      <c r="E391" s="2" t="inlineStr">
+      <c r="E391" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F391" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G391" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H391" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I391" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J391" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K391" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L391" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G391" t="b">
+        <v>1</v>
+      </c>
+      <c r="H391" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I391" t="b">
+        <v>1</v>
+      </c>
+      <c r="J391" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K391" t="b">
+        <v>1</v>
+      </c>
+      <c r="L391" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
     <row r="392">
-      <c r="A392" s="2" t="n">
+      <c r="A392" t="n">
         <v>35</v>
       </c>
-      <c r="B392" s="2" t="inlineStr">
+      <c r="B392" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C392" s="2" t="inlineStr">
+      <c r="C392" t="inlineStr">
         <is>
           <t>card</t>
         </is>
       </c>
-      <c r="D392" s="2" t="n">
+      <c r="D392" t="n">
         <v>5</v>
       </c>
-      <c r="E392" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F392" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G392" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H392" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I392" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J392" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K392" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L392" s="2" t="inlineStr">
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G392" t="b">
+        <v>1</v>
+      </c>
+      <c r="H392" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I392" t="b">
+        <v>1</v>
+      </c>
+      <c r="J392" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K392" t="b">
+        <v>1</v>
+      </c>
+      <c r="L392" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="393">
-      <c r="A393" s="2" t="n">
+      <c r="A393" t="n">
         <v>35</v>
       </c>
-      <c r="B393" s="2" t="inlineStr">
+      <c r="B393" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C393" s="2" t="inlineStr">
+      <c r="C393" t="inlineStr">
         <is>
           <t>or</t>
         </is>
       </c>
-      <c r="D393" s="2" t="n">
+      <c r="D393" t="n">
         <v>6</v>
       </c>
-      <c r="E393" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F393" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G393" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H393" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I393" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J393" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K393" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L393" s="2" t="inlineStr">
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G393" t="b">
+        <v>1</v>
+      </c>
+      <c r="H393" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I393" t="b">
+        <v>1</v>
+      </c>
+      <c r="J393" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K393" t="b">
+        <v>1</v>
+      </c>
+      <c r="L393" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="394">
-      <c r="A394" s="2" t="n">
+      <c r="A394" t="n">
         <v>35</v>
       </c>
-      <c r="B394" s="2" t="inlineStr">
+      <c r="B394" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C394" s="2" t="inlineStr">
+      <c r="C394" t="inlineStr">
         <is>
           <t>delete</t>
         </is>
       </c>
-      <c r="D394" s="2" t="n">
+      <c r="D394" t="n">
         <v>7</v>
       </c>
-      <c r="E394" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F394" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G394" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H394" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I394" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J394" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K394" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L394" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G394" t="b">
+        <v>1</v>
+      </c>
+      <c r="H394" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I394" t="b">
+        <v>1</v>
+      </c>
+      <c r="J394" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K394" t="b">
+        <v>1</v>
+      </c>
+      <c r="L394" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="395">
-      <c r="A395" s="2" t="n">
+      <c r="A395" t="n">
         <v>35</v>
       </c>
-      <c r="B395" s="2" t="inlineStr">
+      <c r="B395" t="inlineStr">
         <is>
           <t>Insufficient SD card space Change card or delete files .</t>
         </is>
       </c>
-      <c r="C395" s="2" t="inlineStr">
+      <c r="C395" t="inlineStr">
         <is>
           <t>files</t>
         </is>
       </c>
-      <c r="D395" s="2" t="n">
+      <c r="D395" t="n">
         <v>8</v>
       </c>
-      <c r="E395" s="2" t="inlineStr">
+      <c r="E395" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F395" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G395" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H395" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I395" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J395" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K395" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L395" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G395" t="b">
+        <v>1</v>
+      </c>
+      <c r="H395" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I395" t="b">
+        <v>1</v>
+      </c>
+      <c r="J395" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K395" t="b">
+        <v>1</v>
+      </c>
+      <c r="L395" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -21978,210 +21978,210 @@
       </c>
     </row>
     <row r="415">
-      <c r="A415" s="2" t="n">
+      <c r="A415" t="n">
         <v>38</v>
       </c>
-      <c r="B415" s="2" t="inlineStr">
+      <c r="B415" t="inlineStr">
         <is>
           <t>Downward vision sensor error Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C415" s="2" t="inlineStr">
+      <c r="C415" t="inlineStr">
         <is>
           <t>Downward</t>
         </is>
       </c>
-      <c r="D415" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E415" s="2" t="inlineStr">
+      <c r="D415" t="n">
+        <v>0</v>
+      </c>
+      <c r="E415" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F415" s="2" t="inlineStr">
+      <c r="F415" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G415" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H415" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I415" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J415" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K415" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L415" s="2" t="inlineStr">
+      <c r="G415" t="b">
+        <v>1</v>
+      </c>
+      <c r="H415" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I415" t="b">
+        <v>1</v>
+      </c>
+      <c r="J415" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K415" t="b">
+        <v>1</v>
+      </c>
+      <c r="L415" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="416">
-      <c r="A416" s="2" t="n">
+      <c r="A416" t="n">
         <v>38</v>
       </c>
-      <c r="B416" s="2" t="inlineStr">
+      <c r="B416" t="inlineStr">
         <is>
           <t>Downward vision sensor error Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C416" s="2" t="inlineStr">
+      <c r="C416" t="inlineStr">
         <is>
           <t>vision</t>
         </is>
       </c>
-      <c r="D416" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E416" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F416" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G416" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H416" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I416" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J416" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K416" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L416" s="2" t="inlineStr">
+      <c r="D416" t="n">
+        <v>1</v>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F416" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G416" t="b">
+        <v>1</v>
+      </c>
+      <c r="H416" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I416" t="b">
+        <v>1</v>
+      </c>
+      <c r="J416" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K416" t="b">
+        <v>1</v>
+      </c>
+      <c r="L416" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="417">
-      <c r="A417" s="2" t="n">
+      <c r="A417" t="n">
         <v>38</v>
       </c>
-      <c r="B417" s="2" t="inlineStr">
+      <c r="B417" t="inlineStr">
         <is>
           <t>Downward vision sensor error Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C417" s="2" t="inlineStr">
+      <c r="C417" t="inlineStr">
         <is>
           <t>sensor</t>
         </is>
       </c>
-      <c r="D417" s="2" t="n">
+      <c r="D417" t="n">
         <v>2</v>
       </c>
-      <c r="E417" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F417" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G417" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H417" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I417" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J417" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K417" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L417" s="2" t="inlineStr">
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G417" t="b">
+        <v>1</v>
+      </c>
+      <c r="H417" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I417" t="b">
+        <v>1</v>
+      </c>
+      <c r="J417" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K417" t="b">
+        <v>1</v>
+      </c>
+      <c r="L417" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="418">
-      <c r="A418" s="2" t="n">
+      <c r="A418" t="n">
         <v>38</v>
       </c>
-      <c r="B418" s="2" t="inlineStr">
+      <c r="B418" t="inlineStr">
         <is>
           <t>Downward vision sensor error Contact DJI Support for assistance .</t>
         </is>
       </c>
-      <c r="C418" s="2" t="inlineStr">
+      <c r="C418" t="inlineStr">
         <is>
           <t>error</t>
         </is>
       </c>
-      <c r="D418" s="2" t="n">
+      <c r="D418" t="n">
         <v>3</v>
       </c>
-      <c r="E418" s="2" t="inlineStr">
+      <c r="E418" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F418" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G418" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H418" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I418" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J418" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K418" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L418" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G418" t="b">
+        <v>1</v>
+      </c>
+      <c r="H418" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I418" t="b">
+        <v>1</v>
+      </c>
+      <c r="J418" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K418" t="b">
+        <v>1</v>
+      </c>
+      <c r="L418" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -22914,210 +22914,210 @@
       </c>
     </row>
     <row r="433">
-      <c r="A433" t="n">
+      <c r="A433" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="B433" t="inlineStr">
+      <c r="B433" s="2" t="inlineStr">
         <is>
           <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C433" t="inlineStr">
+      <c r="C433" s="2" t="inlineStr">
         <is>
           <t>Extended</t>
         </is>
       </c>
-      <c r="D433" t="n">
-        <v>0</v>
-      </c>
-      <c r="E433" t="inlineStr">
+      <c r="D433" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E433" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F433" t="inlineStr">
+      <c r="F433" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G433" t="b">
-        <v>1</v>
-      </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I433" t="b">
-        <v>1</v>
-      </c>
-      <c r="J433" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K433" t="b">
-        <v>1</v>
-      </c>
-      <c r="L433" t="inlineStr">
+      <c r="G433" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H433" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I433" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J433" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K433" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L433" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="434">
-      <c r="A434" t="n">
+      <c r="A434" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="B434" t="inlineStr">
+      <c r="B434" s="2" t="inlineStr">
         <is>
           <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C434" t="inlineStr">
+      <c r="C434" s="2" t="inlineStr">
         <is>
           <t>flight</t>
         </is>
       </c>
-      <c r="D434" t="n">
-        <v>1</v>
-      </c>
-      <c r="E434" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F434" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G434" t="b">
-        <v>1</v>
-      </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I434" t="b">
-        <v>1</v>
-      </c>
-      <c r="J434" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K434" t="b">
-        <v>1</v>
-      </c>
-      <c r="L434" t="inlineStr">
+      <c r="D434" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E434" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F434" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G434" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H434" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I434" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J434" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K434" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L434" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="435">
-      <c r="A435" t="n">
+      <c r="A435" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="B435" t="inlineStr">
+      <c r="B435" s="2" t="inlineStr">
         <is>
           <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C435" t="inlineStr">
+      <c r="C435" s="2" t="inlineStr">
         <is>
           <t>distance</t>
         </is>
       </c>
-      <c r="D435" t="n">
+      <c r="D435" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E435" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F435" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G435" t="b">
-        <v>1</v>
-      </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I435" t="b">
-        <v>1</v>
-      </c>
-      <c r="J435" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K435" t="b">
-        <v>1</v>
-      </c>
-      <c r="L435" t="inlineStr">
+      <c r="E435" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F435" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G435" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H435" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I435" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J435" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K435" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L435" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="436">
-      <c r="A436" t="n">
+      <c r="A436" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="B436" t="inlineStr">
+      <c r="B436" s="2" t="inlineStr">
         <is>
           <t>Extended flight distance detected Always maintain visual line of sight unless otherwise authorized .</t>
         </is>
       </c>
-      <c r="C436" t="inlineStr">
+      <c r="C436" s="2" t="inlineStr">
         <is>
           <t>detected</t>
         </is>
       </c>
-      <c r="D436" t="n">
+      <c r="D436" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E436" t="inlineStr">
+      <c r="E436" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F436" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G436" t="b">
-        <v>1</v>
-      </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I436" t="b">
-        <v>1</v>
-      </c>
-      <c r="J436" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K436" t="b">
-        <v>1</v>
-      </c>
-      <c r="L436" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F436" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G436" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H436" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I436" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J436" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K436" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L436" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -24162,104 +24162,104 @@
       </c>
     </row>
     <row r="457">
-      <c r="A457" t="n">
+      <c r="A457" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="B457" t="inlineStr">
+      <c r="B457" s="2" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C457" t="inlineStr">
+      <c r="C457" s="2" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D457" t="n">
-        <v>0</v>
-      </c>
-      <c r="E457" t="inlineStr">
+      <c r="D457" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E457" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F457" t="inlineStr">
+      <c r="F457" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G457" t="b">
-        <v>1</v>
-      </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I457" t="b">
-        <v>1</v>
-      </c>
-      <c r="J457" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K457" t="b">
-        <v>1</v>
-      </c>
-      <c r="L457" t="inlineStr">
+      <c r="G457" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H457" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I457" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J457" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K457" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L457" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="458">
-      <c r="A458" t="n">
+      <c r="A458" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="B458" t="inlineStr">
+      <c r="B458" s="2" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C458" t="inlineStr">
+      <c r="C458" s="2" t="inlineStr">
         <is>
           <t>Interference</t>
         </is>
       </c>
-      <c r="D458" t="n">
-        <v>1</v>
-      </c>
-      <c r="E458" t="inlineStr">
+      <c r="D458" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E458" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F458" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G458" t="b">
-        <v>1</v>
-      </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I458" t="b">
-        <v>1</v>
-      </c>
-      <c r="J458" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K458" t="b">
-        <v>1</v>
-      </c>
-      <c r="L458" t="inlineStr">
+      <c r="F458" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G458" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H458" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I458" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J458" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K458" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L458" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -24301,11 +24301,11 @@
         </is>
       </c>
       <c r="I459" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J459" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K459" s="2" t="b">
@@ -24341,7 +24341,7 @@
       </c>
       <c r="F460" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G460" s="2" t="b">
@@ -24353,11 +24353,11 @@
         </is>
       </c>
       <c r="I460" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J460" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K460" s="2" t="b">
@@ -24365,7 +24365,7 @@
       </c>
       <c r="L460" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -24393,7 +24393,7 @@
       </c>
       <c r="F461" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G461" s="2" t="b">
@@ -24405,11 +24405,11 @@
         </is>
       </c>
       <c r="I461" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J461" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K461" s="2" t="b">
@@ -24417,7 +24417,7 @@
       </c>
       <c r="L461" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -24445,7 +24445,7 @@
       </c>
       <c r="F462" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G462" s="2" t="b">
@@ -24457,11 +24457,11 @@
         </is>
       </c>
       <c r="I462" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J462" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K462" s="2" t="b">
@@ -24469,7 +24469,7 @@
       </c>
       <c r="L462" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -24734,366 +24734,366 @@
       </c>
     </row>
     <row r="468">
-      <c r="A468" t="n">
+      <c r="A468" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="B468" t="inlineStr">
+      <c r="B468" s="2" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C468" t="inlineStr">
+      <c r="C468" s="2" t="inlineStr">
         <is>
           <t>Cool</t>
         </is>
       </c>
-      <c r="D468" t="n">
+      <c r="D468" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E468" t="inlineStr">
+      <c r="E468" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F468" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G468" t="b">
-        <v>1</v>
-      </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I468" t="b">
-        <v>1</v>
-      </c>
-      <c r="J468" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K468" t="b">
-        <v>1</v>
-      </c>
-      <c r="L468" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F468" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G468" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H468" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I468" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J468" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K468" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L468" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="469">
-      <c r="A469" t="n">
+      <c r="A469" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="B469" t="inlineStr">
+      <c r="B469" s="2" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C469" t="inlineStr">
+      <c r="C469" s="2" t="inlineStr">
         <is>
           <t>down</t>
         </is>
       </c>
-      <c r="D469" t="n">
+      <c r="D469" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E469" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F469" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G469" t="b">
-        <v>1</v>
-      </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I469" t="b">
-        <v>1</v>
-      </c>
-      <c r="J469" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K469" t="b">
-        <v>1</v>
-      </c>
-      <c r="L469" t="inlineStr">
+      <c r="E469" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F469" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G469" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H469" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I469" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J469" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K469" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L469" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="470">
-      <c r="A470" t="n">
+      <c r="A470" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="B470" t="inlineStr">
+      <c r="B470" s="2" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C470" t="inlineStr">
+      <c r="C470" s="2" t="inlineStr">
         <is>
           <t>the</t>
         </is>
       </c>
-      <c r="D470" t="n">
+      <c r="D470" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E470" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F470" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G470" t="b">
-        <v>1</v>
-      </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I470" t="b">
-        <v>1</v>
-      </c>
-      <c r="J470" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K470" t="b">
-        <v>1</v>
-      </c>
-      <c r="L470" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E470" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F470" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G470" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H470" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I470" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J470" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K470" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L470" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="471">
-      <c r="A471" t="n">
+      <c r="A471" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="B471" t="inlineStr">
+      <c r="B471" s="2" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C471" t="inlineStr">
+      <c r="C471" s="2" t="inlineStr">
         <is>
           <t>monitor</t>
         </is>
       </c>
-      <c r="D471" t="n">
+      <c r="D471" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E471" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F471" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G471" t="b">
-        <v>1</v>
-      </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I471" t="b">
-        <v>1</v>
-      </c>
-      <c r="J471" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K471" t="b">
-        <v>1</v>
-      </c>
-      <c r="L471" t="inlineStr">
+      <c r="E471" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F471" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G471" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H471" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I471" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J471" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K471" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L471" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="472">
-      <c r="A472" t="n">
+      <c r="A472" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="B472" t="inlineStr">
+      <c r="B472" s="2" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C472" t="inlineStr">
+      <c r="C472" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D472" t="n">
+      <c r="D472" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E472" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F472" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G472" t="b">
-        <v>1</v>
-      </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I472" t="b">
-        <v>1</v>
-      </c>
-      <c r="J472" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K472" t="b">
-        <v>1</v>
-      </c>
-      <c r="L472" t="inlineStr">
+      <c r="E472" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F472" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G472" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H472" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I472" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J472" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K472" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L472" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="473">
-      <c r="A473" t="n">
+      <c r="A473" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="B473" t="inlineStr">
+      <c r="B473" s="2" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C473" t="inlineStr">
+      <c r="C473" s="2" t="inlineStr">
         <is>
           <t>prevent</t>
         </is>
       </c>
-      <c r="D473" t="n">
+      <c r="D473" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E473" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F473" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G473" t="b">
-        <v>1</v>
-      </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I473" t="b">
-        <v>1</v>
-      </c>
-      <c r="J473" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K473" t="b">
-        <v>1</v>
-      </c>
-      <c r="L473" t="inlineStr">
+      <c r="E473" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F473" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G473" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H473" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I473" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J473" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K473" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L473" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="474">
-      <c r="A474" t="n">
+      <c r="A474" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="B474" t="inlineStr">
+      <c r="B474" s="2" t="inlineStr">
         <is>
           <t>CrystalSky is too hot Cool down the monitor to prevent overheating .</t>
         </is>
       </c>
-      <c r="C474" t="inlineStr">
+      <c r="C474" s="2" t="inlineStr">
         <is>
           <t>overheating</t>
         </is>
       </c>
-      <c r="D474" t="n">
+      <c r="D474" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E474" t="inlineStr">
+      <c r="E474" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F474" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G474" t="b">
-        <v>1</v>
-      </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I474" t="b">
-        <v>1</v>
-      </c>
-      <c r="J474" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K474" t="b">
-        <v>1</v>
-      </c>
-      <c r="L474" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F474" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G474" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H474" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I474" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J474" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K474" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L474" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -25150,208 +25150,208 @@
       </c>
     </row>
     <row r="476">
-      <c r="A476" t="n">
+      <c r="A476" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="B476" t="inlineStr">
+      <c r="B476" s="2" t="inlineStr">
         <is>
           <t>Aircraft takeoff altitude error Restart aircraft .</t>
         </is>
       </c>
-      <c r="C476" t="inlineStr">
+      <c r="C476" s="2" t="inlineStr">
         <is>
           <t>Aircraft</t>
         </is>
       </c>
-      <c r="D476" t="n">
-        <v>0</v>
-      </c>
-      <c r="E476" t="inlineStr">
+      <c r="D476" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E476" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F476" t="inlineStr">
+      <c r="F476" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G476" t="b">
-        <v>1</v>
-      </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I476" t="b">
-        <v>1</v>
-      </c>
-      <c r="J476" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K476" t="b">
-        <v>1</v>
-      </c>
-      <c r="L476" t="inlineStr">
+      <c r="G476" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H476" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I476" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J476" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K476" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L476" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="477">
-      <c r="A477" t="n">
+      <c r="A477" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="B477" t="inlineStr">
+      <c r="B477" s="2" t="inlineStr">
         <is>
           <t>Aircraft takeoff altitude error Restart aircraft .</t>
         </is>
       </c>
-      <c r="C477" t="inlineStr">
+      <c r="C477" s="2" t="inlineStr">
         <is>
           <t>takeoff</t>
         </is>
       </c>
-      <c r="D477" t="n">
-        <v>1</v>
-      </c>
-      <c r="E477" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F477" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G477" t="b">
-        <v>1</v>
-      </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I477" t="b">
-        <v>1</v>
-      </c>
-      <c r="J477" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K477" t="b">
-        <v>1</v>
-      </c>
-      <c r="L477" t="inlineStr">
+      <c r="D477" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E477" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F477" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G477" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H477" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I477" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J477" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K477" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L477" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="478">
-      <c r="A478" t="n">
+      <c r="A478" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="B478" t="inlineStr">
+      <c r="B478" s="2" t="inlineStr">
         <is>
           <t>Aircraft takeoff altitude error Restart aircraft .</t>
         </is>
       </c>
-      <c r="C478" t="inlineStr">
+      <c r="C478" s="2" t="inlineStr">
         <is>
           <t>altitude</t>
         </is>
       </c>
-      <c r="D478" t="n">
+      <c r="D478" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E478" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F478" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G478" t="b">
-        <v>1</v>
-      </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I478" t="b">
-        <v>1</v>
-      </c>
-      <c r="J478" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K478" t="b">
-        <v>1</v>
-      </c>
-      <c r="L478" t="inlineStr">
+      <c r="E478" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F478" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G478" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H478" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I478" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J478" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K478" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L478" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="479">
-      <c r="A479" t="n">
+      <c r="A479" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="B479" t="inlineStr">
+      <c r="B479" s="2" t="inlineStr">
         <is>
           <t>Aircraft takeoff altitude error Restart aircraft .</t>
         </is>
       </c>
-      <c r="C479" t="inlineStr">
+      <c r="C479" s="2" t="inlineStr">
         <is>
           <t>error</t>
         </is>
       </c>
-      <c r="D479" t="n">
+      <c r="D479" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E479" t="inlineStr">
+      <c r="E479" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F479" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G479" t="b">
-        <v>1</v>
-      </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I479" t="b">
-        <v>1</v>
-      </c>
-      <c r="J479" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K479" t="b">
-        <v>1</v>
-      </c>
-      <c r="L479" t="inlineStr">
+      <c r="F479" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G479" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H479" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I479" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J479" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K479" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L479" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_E_as_I</t>
         </is>
@@ -25393,11 +25393,11 @@
         </is>
       </c>
       <c r="I480" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J480" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K480" s="2" t="b">
@@ -25433,7 +25433,7 @@
       </c>
       <c r="F481" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G481" s="2" t="b">
@@ -25445,11 +25445,11 @@
         </is>
       </c>
       <c r="I481" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J481" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K481" s="2" t="b">
@@ -25457,7 +25457,7 @@
       </c>
       <c r="L481" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -25849,7 +25849,7 @@
       </c>
       <c r="F489" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G489" t="b">
@@ -25873,7 +25873,7 @@
       </c>
       <c r="L489" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -25901,7 +25901,7 @@
       </c>
       <c r="F490" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G490" s="2" t="b">
